--- a/server/pyreport/report2.xlsx
+++ b/server/pyreport/report2.xlsx
@@ -4344,7 +4344,7 @@
       </c>
       <c r="L5" s="8" t="n"/>
       <c r="M5" s="69" t="n">
-        <v>45027</v>
+        <v>45049</v>
       </c>
       <c r="N5" s="81" t="n"/>
       <c r="O5" s="81" t="n"/>
@@ -4620,32 +4620,44 @@
         </is>
       </c>
       <c r="F14" s="91" t="n"/>
-      <c r="G14" s="41" t="n">
-        <v>51.269337</v>
-      </c>
-      <c r="H14" s="42" t="n">
-        <v>51.459794</v>
-      </c>
-      <c r="I14" s="43" t="n">
-        <v>51.3169635</v>
-      </c>
-      <c r="J14" s="41" t="n">
-        <v>51.080509</v>
-      </c>
-      <c r="K14" s="42" t="n">
-        <v>51.837464</v>
-      </c>
-      <c r="L14" s="43" t="n">
-        <v>51.49631452873563</v>
+      <c r="G14" s="41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" s="43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" s="41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" s="43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M14" s="41" t="n">
         <v>51.080509</v>
       </c>
       <c r="N14" s="42" t="n">
-        <v>53.539692</v>
+        <v>52.594284</v>
       </c>
       <c r="O14" s="43" t="n">
-        <v>52.08703027118644</v>
+        <v>51.82434320264317</v>
       </c>
       <c r="P14" s="92" t="n">
         <v>20</v>
@@ -4672,32 +4684,44 @@
         </is>
       </c>
       <c r="F15" s="91" t="n"/>
-      <c r="G15" s="44" t="n">
-        <v>88.067954</v>
-      </c>
-      <c r="H15" s="42" t="n">
-        <v>88.256388</v>
-      </c>
-      <c r="I15" s="45" t="n">
-        <v>88.1151105</v>
-      </c>
-      <c r="J15" s="44" t="n">
-        <v>87.878981</v>
-      </c>
-      <c r="K15" s="42" t="n">
-        <v>88.635699</v>
-      </c>
-      <c r="L15" s="45" t="n">
-        <v>88.24192893999999</v>
+      <c r="G15" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M15" s="44" t="n">
         <v>87.878981</v>
       </c>
       <c r="N15" s="42" t="n">
-        <v>90.147704</v>
+        <v>89.39169200000001</v>
       </c>
       <c r="O15" s="45" t="n">
-        <v>88.81175497421204</v>
+        <v>88.57677418345324</v>
       </c>
       <c r="P15" s="92" t="n">
         <v>27</v>
@@ -4724,32 +4748,44 @@
         </is>
       </c>
       <c r="F16" s="91" t="n"/>
-      <c r="G16" s="44" t="n">
-        <v>46.003107</v>
-      </c>
-      <c r="H16" s="42" t="n">
-        <v>46.003462</v>
-      </c>
-      <c r="I16" s="45" t="n">
-        <v>46.00329175</v>
-      </c>
-      <c r="J16" s="44" t="n">
-        <v>45.617667</v>
-      </c>
-      <c r="K16" s="42" t="n">
-        <v>46.387358</v>
-      </c>
-      <c r="L16" s="45" t="n">
-        <v>46.084888925</v>
+      <c r="G16" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L16" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M16" s="44" t="n">
         <v>45.617667</v>
       </c>
       <c r="N16" s="42" t="n">
-        <v>47.157342</v>
+        <v>46.773106</v>
       </c>
       <c r="O16" s="45" t="n">
-        <v>46.38195556981132</v>
+        <v>46.23785285576923</v>
       </c>
       <c r="P16" s="92" t="n">
         <v>30.8</v>
@@ -4776,32 +4812,44 @@
         </is>
       </c>
       <c r="F17" s="91" t="n"/>
-      <c r="G17" s="44" t="n">
-        <v>2.716458</v>
-      </c>
-      <c r="H17" s="42" t="n">
-        <v>2.906117</v>
-      </c>
-      <c r="I17" s="45" t="n">
-        <v>2.842384</v>
-      </c>
-      <c r="J17" s="44" t="n">
-        <v>2.715659</v>
-      </c>
-      <c r="K17" s="42" t="n">
-        <v>3.470233</v>
-      </c>
-      <c r="L17" s="45" t="n">
-        <v>3.124972204819277</v>
+      <c r="G17" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M17" s="44" t="n">
         <v>2.715659</v>
       </c>
       <c r="N17" s="42" t="n">
-        <v>4.976654</v>
+        <v>4.78915</v>
       </c>
       <c r="O17" s="45" t="n">
-        <v>3.688862555555556</v>
+        <v>3.458217892376682</v>
       </c>
       <c r="P17" s="92" t="n">
         <v>51</v>
@@ -4828,32 +4876,44 @@
         </is>
       </c>
       <c r="F18" s="91" t="n"/>
-      <c r="G18" s="44" t="n">
-        <v>54.579404</v>
-      </c>
-      <c r="H18" s="42" t="n">
-        <v>54.771043</v>
-      </c>
-      <c r="I18" s="45" t="n">
-        <v>54.64342066666666</v>
-      </c>
-      <c r="J18" s="44" t="n">
-        <v>54.387979</v>
-      </c>
-      <c r="K18" s="42" t="n">
-        <v>54.962541</v>
-      </c>
-      <c r="L18" s="45" t="n">
-        <v>54.72251037349398</v>
+      <c r="G18" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L18" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M18" s="44" t="n">
         <v>54.387979</v>
       </c>
       <c r="N18" s="42" t="n">
-        <v>56.113678</v>
+        <v>55.537908</v>
       </c>
       <c r="O18" s="45" t="n">
-        <v>55.16830579569893</v>
+        <v>54.97839608071749</v>
       </c>
       <c r="P18" s="92" t="n">
         <v>69</v>
@@ -4880,32 +4940,44 @@
         </is>
       </c>
       <c r="F19" s="91" t="n"/>
-      <c r="G19" s="44" t="n">
-        <v>-22.365787</v>
-      </c>
-      <c r="H19" s="42" t="n">
-        <v>-22.18747</v>
-      </c>
-      <c r="I19" s="45" t="n">
-        <v>-22.254435</v>
-      </c>
-      <c r="J19" s="44" t="n">
-        <v>-22.632162</v>
-      </c>
-      <c r="K19" s="42" t="n">
-        <v>-21.921157</v>
-      </c>
-      <c r="L19" s="45" t="n">
-        <v>-22.23484208235294</v>
+      <c r="G19" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L19" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M19" s="44" t="n">
         <v>-22.632162</v>
       </c>
       <c r="N19" s="42" t="n">
-        <v>-21.742876</v>
+        <v>-21.921152</v>
       </c>
       <c r="O19" s="45" t="n">
-        <v>-22.17460975945017</v>
+        <v>-22.20872004</v>
       </c>
       <c r="P19" s="92" t="n">
         <v>23</v>
@@ -4932,32 +5004,44 @@
         </is>
       </c>
       <c r="F20" s="91" t="n"/>
-      <c r="G20" s="44" t="n">
-        <v>-20.721551</v>
-      </c>
-      <c r="H20" s="42" t="n">
-        <v>-20.528814</v>
-      </c>
-      <c r="I20" s="45" t="n">
-        <v>-20.67336275</v>
-      </c>
-      <c r="J20" s="44" t="n">
-        <v>-20.915093</v>
-      </c>
-      <c r="K20" s="42" t="n">
-        <v>-20.336109</v>
-      </c>
-      <c r="L20" s="45" t="n">
-        <v>-20.61849435294118</v>
+      <c r="G20" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K20" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M20" s="44" t="n">
         <v>-21.011472</v>
       </c>
       <c r="N20" s="42" t="n">
-        <v>-20.046273</v>
+        <v>-20.238949</v>
       </c>
       <c r="O20" s="45" t="n">
-        <v>-20.56561484536082</v>
+        <v>-20.59656177777778</v>
       </c>
       <c r="P20" s="92" t="n">
         <v>25.5</v>
@@ -4984,32 +5068,44 @@
         </is>
       </c>
       <c r="F21" s="91" t="n"/>
-      <c r="G21" s="44" t="n">
-        <v>-7.234408</v>
-      </c>
-      <c r="H21" s="42" t="n">
-        <v>-7.146682</v>
-      </c>
-      <c r="I21" s="45" t="n">
-        <v>-7.1686155</v>
-      </c>
-      <c r="J21" s="44" t="n">
-        <v>-7.23442</v>
-      </c>
-      <c r="K21" s="42" t="n">
-        <v>-6.795101</v>
-      </c>
-      <c r="L21" s="45" t="n">
-        <v>-7.061026611764706</v>
+      <c r="G21" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K21" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M21" s="44" t="n">
         <v>-7.23442</v>
       </c>
       <c r="N21" s="42" t="n">
-        <v>-5.829168</v>
+        <v>-6.356642</v>
       </c>
       <c r="O21" s="45" t="n">
-        <v>-6.656550020618557</v>
+        <v>-6.844183471111111</v>
       </c>
       <c r="P21" s="92" t="n">
         <v>28.2</v>
@@ -5036,23 +5132,35 @@
         </is>
       </c>
       <c r="F22" s="91" t="n"/>
-      <c r="G22" s="44" t="n">
-        <v>38.06605</v>
-      </c>
-      <c r="H22" s="42" t="n">
-        <v>38.255435</v>
-      </c>
-      <c r="I22" s="45" t="n">
-        <v>38.1134265</v>
-      </c>
-      <c r="J22" s="44" t="n">
-        <v>37.876536</v>
-      </c>
-      <c r="K22" s="42" t="n">
-        <v>38.255598</v>
-      </c>
-      <c r="L22" s="45" t="n">
-        <v>38.10010316666666</v>
+      <c r="G22" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K22" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L22" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M22" s="44" t="n">
         <v>37.876536</v>
@@ -5061,7 +5169,7 @@
         <v>39.393203</v>
       </c>
       <c r="O22" s="45" t="n">
-        <v>38.47589825172414</v>
+        <v>38.3004155</v>
       </c>
       <c r="P22" s="92" t="n">
         <v>42</v>
@@ -5088,32 +5196,44 @@
         </is>
       </c>
       <c r="F23" s="91" t="n"/>
-      <c r="G23" s="44" t="n">
-        <v>31.572308</v>
-      </c>
-      <c r="H23" s="42" t="n">
-        <v>31.745899</v>
-      </c>
-      <c r="I23" s="45" t="n">
-        <v>31.63017166666667</v>
-      </c>
-      <c r="J23" s="44" t="n">
-        <v>31.572285</v>
-      </c>
-      <c r="K23" s="42" t="n">
-        <v>32.093075</v>
-      </c>
-      <c r="L23" s="45" t="n">
-        <v>31.7437282</v>
+      <c r="G23" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K23" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L23" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M23" s="44" t="n">
         <v>31.572285</v>
       </c>
       <c r="N23" s="42" t="n">
-        <v>33.831342</v>
+        <v>32.441675</v>
       </c>
       <c r="O23" s="45" t="n">
-        <v>32.19740895918368</v>
+        <v>31.97963198717949</v>
       </c>
       <c r="P23" s="92" t="n">
         <v>18.3</v>
@@ -5140,32 +5260,44 @@
         </is>
       </c>
       <c r="F24" s="91" t="n"/>
-      <c r="G24" s="44" t="n">
-        <v>38.495776</v>
-      </c>
-      <c r="H24" s="42" t="n">
-        <v>38.6874</v>
-      </c>
-      <c r="I24" s="45" t="n">
-        <v>38.54382375</v>
-      </c>
-      <c r="J24" s="44" t="n">
+      <c r="G24" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K24" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M24" s="44" t="n">
         <v>37.536335</v>
       </c>
-      <c r="K24" s="42" t="n">
-        <v>38.6874</v>
-      </c>
-      <c r="L24" s="45" t="n">
-        <v>37.9870278125</v>
-      </c>
-      <c r="M24" s="44" t="n">
-        <v>35.615942</v>
-      </c>
       <c r="N24" s="42" t="n">
-        <v>40.610147</v>
+        <v>40.035001</v>
       </c>
       <c r="O24" s="45" t="n">
-        <v>38.50175982098765</v>
+        <v>38.50004232539683</v>
       </c>
       <c r="P24" s="92" t="n">
         <v>9.300000000000001</v>
@@ -5192,32 +5324,44 @@
         </is>
       </c>
       <c r="F25" s="91" t="n"/>
-      <c r="G25" s="44" t="n">
-        <v>88.116631</v>
-      </c>
-      <c r="H25" s="42" t="n">
-        <v>88.11710100000001</v>
-      </c>
-      <c r="I25" s="45" t="n">
-        <v>88.11689325</v>
-      </c>
-      <c r="J25" s="44" t="n">
-        <v>87.757948</v>
-      </c>
-      <c r="K25" s="42" t="n">
-        <v>88.476827</v>
-      </c>
-      <c r="L25" s="45" t="n">
-        <v>88.14900490588235</v>
+      <c r="G25" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K25" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L25" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M25" s="44" t="n">
         <v>87.757948</v>
       </c>
       <c r="N25" s="42" t="n">
-        <v>90.268941</v>
+        <v>88.8343</v>
       </c>
       <c r="O25" s="45" t="n">
-        <v>88.52014079999999</v>
+        <v>88.32555125108225</v>
       </c>
       <c r="P25" s="92" t="n">
         <v>14.3</v>
@@ -5244,32 +5388,44 @@
         </is>
       </c>
       <c r="F26" s="91" t="n"/>
-      <c r="G26" s="44" t="n">
-        <v>-23.850214</v>
-      </c>
-      <c r="H26" s="42" t="n">
-        <v>-23.667168</v>
-      </c>
-      <c r="I26" s="45" t="n">
-        <v>-23.758691</v>
-      </c>
-      <c r="J26" s="44" t="n">
-        <v>-24.032513</v>
-      </c>
-      <c r="K26" s="42" t="n">
-        <v>-23.393773</v>
-      </c>
-      <c r="L26" s="45" t="n">
-        <v>-23.69024977272727</v>
+      <c r="G26" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J26" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K26" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L26" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M26" s="44" t="n">
         <v>-24.032513</v>
       </c>
       <c r="N26" s="42" t="n">
-        <v>-23.119662</v>
+        <v>-23.210772</v>
       </c>
       <c r="O26" s="45" t="n">
-        <v>-23.60693190310078</v>
+        <v>-23.6445142356021</v>
       </c>
       <c r="P26" s="92" t="n">
         <v>8</v>
@@ -5296,32 +5452,44 @@
         </is>
       </c>
       <c r="F27" s="91" t="n"/>
-      <c r="G27" s="44" t="n">
-        <v>-16.866026</v>
-      </c>
-      <c r="H27" s="42" t="n">
-        <v>-16.778131</v>
-      </c>
-      <c r="I27" s="45" t="n">
-        <v>-16.8220785</v>
-      </c>
-      <c r="J27" s="44" t="n">
+      <c r="G27" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J27" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K27" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L27" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M27" s="44" t="n">
         <v>-17.130493</v>
       </c>
-      <c r="K27" s="42" t="n">
-        <v>-16.513712</v>
-      </c>
-      <c r="L27" s="45" t="n">
-        <v>-16.75798686363636</v>
-      </c>
-      <c r="M27" s="44" t="n">
-        <v>-18.011426</v>
-      </c>
       <c r="N27" s="42" t="n">
-        <v>-15.45795</v>
+        <v>-16.33795</v>
       </c>
       <c r="O27" s="45" t="n">
-        <v>-16.66096948062016</v>
+        <v>-16.73557342931937</v>
       </c>
       <c r="P27" s="92" t="n">
         <v>16</v>
@@ -5348,32 +5516,44 @@
         </is>
       </c>
       <c r="F28" s="91" t="n"/>
-      <c r="G28" s="44" t="n">
-        <v>-8.706336</v>
-      </c>
-      <c r="H28" s="42" t="n">
-        <v>-8.706327999999999</v>
-      </c>
-      <c r="I28" s="45" t="n">
-        <v>-8.706332</v>
-      </c>
-      <c r="J28" s="44" t="n">
-        <v>-8.796791000000001</v>
-      </c>
-      <c r="K28" s="42" t="n">
-        <v>-8.343771</v>
-      </c>
-      <c r="L28" s="45" t="n">
-        <v>-8.535239840909091</v>
+      <c r="G28" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J28" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K28" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L28" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M28" s="44" t="n">
         <v>-8.796791000000001</v>
       </c>
       <c r="N28" s="42" t="n">
-        <v>-6.623296</v>
+        <v>-7.800464</v>
       </c>
       <c r="O28" s="45" t="n">
-        <v>-7.96709703875969</v>
+        <v>-8.248465612565445</v>
       </c>
       <c r="P28" s="92" t="n">
         <v>17.2</v>
@@ -5400,32 +5580,44 @@
         </is>
       </c>
       <c r="F29" s="91" t="n"/>
-      <c r="G29" s="44" t="n">
-        <v>2.343576</v>
-      </c>
-      <c r="H29" s="42" t="n">
-        <v>2.343584</v>
-      </c>
-      <c r="I29" s="45" t="n">
-        <v>2.34358</v>
-      </c>
-      <c r="J29" s="44" t="n">
-        <v>2.343576</v>
-      </c>
-      <c r="K29" s="42" t="n">
-        <v>2.782045</v>
-      </c>
-      <c r="L29" s="45" t="n">
-        <v>2.525826795454546</v>
+      <c r="G29" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K29" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L29" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M29" s="44" t="n">
         <v>2.343576</v>
       </c>
       <c r="N29" s="42" t="n">
-        <v>4.753573</v>
+        <v>3.329794</v>
       </c>
       <c r="O29" s="45" t="n">
-        <v>3.137016352713178</v>
+        <v>2.827383732984293</v>
       </c>
       <c r="P29" s="92" t="n">
         <v>19.8</v>
@@ -5452,32 +5644,44 @@
         </is>
       </c>
       <c r="F30" s="91" t="n"/>
-      <c r="G30" s="44" t="n">
-        <v>7.73495</v>
-      </c>
-      <c r="H30" s="42" t="n">
-        <v>7.907556</v>
-      </c>
-      <c r="I30" s="45" t="n">
-        <v>7.821253</v>
-      </c>
-      <c r="J30" s="44" t="n">
-        <v>7.73495</v>
-      </c>
-      <c r="K30" s="42" t="n">
-        <v>8.167164</v>
-      </c>
-      <c r="L30" s="45" t="n">
-        <v>7.917446886363637</v>
+      <c r="G30" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J30" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K30" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L30" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M30" s="44" t="n">
         <v>7.73495</v>
       </c>
       <c r="N30" s="42" t="n">
-        <v>9.894907999999999</v>
+        <v>8.599289000000001</v>
       </c>
       <c r="O30" s="45" t="n">
-        <v>8.471851992248062</v>
+        <v>8.18470564921466</v>
       </c>
       <c r="P30" s="92" t="n">
         <v>20</v>
@@ -5504,32 +5708,44 @@
         </is>
       </c>
       <c r="F31" s="91" t="n"/>
-      <c r="G31" s="44" t="n">
-        <v>-5.68339</v>
-      </c>
-      <c r="H31" s="42" t="n">
-        <v>-5.68339</v>
-      </c>
-      <c r="I31" s="45" t="n">
-        <v>-5.68339</v>
-      </c>
-      <c r="J31" s="44" t="n">
-        <v>-5.824537</v>
-      </c>
-      <c r="K31" s="42" t="n">
-        <v>-5.268304</v>
-      </c>
-      <c r="L31" s="45" t="n">
-        <v>-5.556877378378378</v>
+      <c r="G31" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L31" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M31" s="44" t="n">
         <v>-5.824537</v>
       </c>
       <c r="N31" s="42" t="n">
-        <v>-5.130858</v>
+        <v>-5.268158</v>
       </c>
       <c r="O31" s="45" t="n">
-        <v>-5.527629900662252</v>
+        <v>-5.539622118181819</v>
       </c>
       <c r="P31" s="92" t="n">
         <v>23.5</v>
@@ -5556,23 +5772,35 @@
         </is>
       </c>
       <c r="F32" s="91" t="n"/>
-      <c r="G32" s="44" t="n">
-        <v>-3.941321</v>
-      </c>
-      <c r="H32" s="42" t="n">
-        <v>-3.941321</v>
-      </c>
-      <c r="I32" s="45" t="n">
-        <v>-3.941321</v>
-      </c>
-      <c r="J32" s="44" t="n">
-        <v>-4.352729</v>
-      </c>
-      <c r="K32" s="42" t="n">
-        <v>-3.669039</v>
-      </c>
-      <c r="L32" s="45" t="n">
-        <v>-3.931108567567568</v>
+      <c r="G32" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L32" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M32" s="44" t="n">
         <v>-4.352729</v>
@@ -5581,7 +5809,7 @@
         <v>-3.532722</v>
       </c>
       <c r="O32" s="45" t="n">
-        <v>-3.904556490066225</v>
+        <v>-3.930164254545454</v>
       </c>
       <c r="P32" s="92" t="n">
         <v>26</v>
@@ -5608,32 +5836,44 @@
         </is>
       </c>
       <c r="F33" s="91" t="n"/>
-      <c r="G33" s="44" t="n">
-        <v>-22.636704</v>
-      </c>
-      <c r="H33" s="42" t="n">
-        <v>-22.447427</v>
-      </c>
-      <c r="I33" s="45" t="n">
-        <v>-22.51053966666667</v>
-      </c>
-      <c r="J33" s="44" t="n">
-        <v>-22.824808</v>
-      </c>
-      <c r="K33" s="42" t="n">
-        <v>-22.259467</v>
-      </c>
-      <c r="L33" s="45" t="n">
-        <v>-22.506315</v>
+      <c r="G33" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L33" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M33" s="44" t="n">
         <v>-22.824808</v>
       </c>
       <c r="N33" s="42" t="n">
-        <v>-21.322034</v>
+        <v>-21.884707</v>
       </c>
       <c r="O33" s="45" t="n">
-        <v>-22.21748903521127</v>
+        <v>-22.32896085462555</v>
       </c>
       <c r="P33" s="92" t="n">
         <v>11</v>
@@ -5660,23 +5900,35 @@
         </is>
       </c>
       <c r="F34" s="91" t="n"/>
-      <c r="G34" s="44" t="n">
-        <v>58.728157</v>
-      </c>
-      <c r="H34" s="42" t="n">
-        <v>59.103219</v>
-      </c>
-      <c r="I34" s="45" t="n">
-        <v>58.96259</v>
-      </c>
-      <c r="J34" s="44" t="n">
-        <v>54.780419</v>
-      </c>
-      <c r="K34" s="42" t="n">
-        <v>59.103219</v>
-      </c>
-      <c r="L34" s="45" t="n">
-        <v>57.08472440697675</v>
+      <c r="G34" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L34" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M34" s="44" t="n">
         <v>54.780419</v>
@@ -5685,7 +5937,7 @@
         <v>59.103219</v>
       </c>
       <c r="O34" s="45" t="n">
-        <v>56.78991789323843</v>
+        <v>56.64248792444445</v>
       </c>
       <c r="P34" s="92" t="n">
         <v>42</v>
@@ -5712,32 +5964,44 @@
         </is>
       </c>
       <c r="F35" s="91" t="n"/>
-      <c r="G35" s="44" t="n">
-        <v>-416.887522</v>
-      </c>
-      <c r="H35" s="42" t="n">
-        <v>-416.78066</v>
-      </c>
-      <c r="I35" s="45" t="n">
-        <v>-416.86080425</v>
-      </c>
-      <c r="J35" s="44" t="n">
-        <v>-417.102156</v>
-      </c>
-      <c r="K35" s="42" t="n">
-        <v>-416.566945</v>
-      </c>
-      <c r="L35" s="45" t="n">
-        <v>-416.8721455</v>
+      <c r="G35" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L35" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M35" s="44" t="n">
         <v>-417.102156</v>
       </c>
       <c r="N35" s="42" t="n">
-        <v>-415.389144</v>
+        <v>-416.566927</v>
       </c>
       <c r="O35" s="45" t="n">
-        <v>-416.6167371279762</v>
+        <v>-416.7823637631579</v>
       </c>
       <c r="P35" s="92" t="n">
         <v>21</v>
@@ -5764,32 +6028,44 @@
         </is>
       </c>
       <c r="F36" s="91" t="n"/>
-      <c r="G36" s="44" t="n">
-        <v>152.462618</v>
-      </c>
-      <c r="H36" s="42" t="n">
-        <v>152.720685</v>
-      </c>
-      <c r="I36" s="45" t="n">
-        <v>152.59324375</v>
-      </c>
-      <c r="J36" s="44" t="n">
-        <v>152.462592</v>
-      </c>
-      <c r="K36" s="42" t="n">
-        <v>152.851034</v>
-      </c>
-      <c r="L36" s="45" t="n">
-        <v>152.6031099270833</v>
+      <c r="G36" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L36" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M36" s="44" t="n">
         <v>152.462592</v>
       </c>
       <c r="N36" s="42" t="n">
-        <v>153.886263</v>
+        <v>152.982256</v>
       </c>
       <c r="O36" s="45" t="n">
-        <v>152.8578387202381</v>
+        <v>152.6981417669173</v>
       </c>
       <c r="P36" s="92" t="n">
         <v>25</v>
@@ -5816,32 +6092,44 @@
         </is>
       </c>
       <c r="F37" s="91" t="n"/>
-      <c r="G37" s="44" t="n">
-        <v>-24.825001</v>
-      </c>
-      <c r="H37" s="42" t="n">
-        <v>-24.724959</v>
-      </c>
-      <c r="I37" s="45" t="n">
-        <v>-24.79998625</v>
-      </c>
-      <c r="J37" s="44" t="n">
-        <v>-25.125969</v>
-      </c>
-      <c r="K37" s="42" t="n">
-        <v>-24.424886</v>
-      </c>
-      <c r="L37" s="45" t="n">
-        <v>-24.74703166666667</v>
+      <c r="G37" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L37" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M37" s="44" t="n">
         <v>-25.125969</v>
       </c>
       <c r="N37" s="42" t="n">
-        <v>-23.823158</v>
+        <v>-24.324023</v>
       </c>
       <c r="O37" s="45" t="n">
-        <v>-24.61181523214286</v>
+        <v>-24.67917204135338</v>
       </c>
       <c r="P37" s="92" t="n">
         <v>4</v>
@@ -5867,32 +6155,44 @@
         </is>
       </c>
       <c r="F38" s="91" t="n"/>
-      <c r="G38" s="44" t="n">
-        <v>-23.205859</v>
-      </c>
-      <c r="H38" s="42" t="n">
-        <v>-23.023701</v>
-      </c>
-      <c r="I38" s="45" t="n">
-        <v>-23.0920105</v>
-      </c>
-      <c r="J38" s="44" t="n">
-        <v>-23.388031</v>
-      </c>
-      <c r="K38" s="42" t="n">
-        <v>-22.658671</v>
-      </c>
-      <c r="L38" s="45" t="n">
-        <v>-23.02906391666667</v>
+      <c r="G38" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L38" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M38" s="44" t="n">
         <v>-23.388031</v>
       </c>
       <c r="N38" s="42" t="n">
-        <v>-22.475792</v>
+        <v>-22.658663</v>
       </c>
       <c r="O38" s="45" t="n">
-        <v>-22.96772222321428</v>
+        <v>-22.99869653383459</v>
       </c>
       <c r="P38" s="92" t="n">
         <v>9</v>
@@ -5918,32 +6218,44 @@
         </is>
       </c>
       <c r="F39" s="91" t="n"/>
-      <c r="G39" s="44" t="n">
-        <v>60.622593</v>
-      </c>
-      <c r="H39" s="42" t="n">
-        <v>60.756238</v>
-      </c>
-      <c r="I39" s="45" t="n">
-        <v>60.65684225</v>
-      </c>
-      <c r="J39" s="44" t="n">
-        <v>59.828687</v>
-      </c>
-      <c r="K39" s="42" t="n">
-        <v>60.888408</v>
-      </c>
-      <c r="L39" s="45" t="n">
-        <v>60.62649067368421</v>
+      <c r="G39" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M39" s="44" t="n">
         <v>59.828687</v>
       </c>
       <c r="N39" s="42" t="n">
-        <v>62.082052</v>
+        <v>61.155523</v>
       </c>
       <c r="O39" s="45" t="n">
-        <v>60.94188749079755</v>
+        <v>60.7847475648855</v>
       </c>
       <c r="P39" s="92" t="n">
         <v>27</v>
@@ -5968,32 +6280,44 @@
         </is>
       </c>
       <c r="F40" s="91" t="n"/>
-      <c r="G40" s="44" t="n">
-        <v>-68.392258</v>
-      </c>
-      <c r="H40" s="42" t="n">
-        <v>-68.217608</v>
-      </c>
-      <c r="I40" s="45" t="n">
-        <v>-68.30491375</v>
-      </c>
-      <c r="J40" s="44" t="n">
-        <v>-68.56765</v>
-      </c>
-      <c r="K40" s="42" t="n">
-        <v>-67.954864</v>
-      </c>
-      <c r="L40" s="45" t="n">
-        <v>-68.20655782105263</v>
+      <c r="G40" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L40" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M40" s="44" t="n">
         <v>-68.56765</v>
       </c>
       <c r="N40" s="42" t="n">
-        <v>-66.730661</v>
+        <v>-67.605617</v>
       </c>
       <c r="O40" s="45" t="n">
-        <v>-67.87013478527608</v>
+        <v>-68.03362051145038</v>
       </c>
       <c r="P40" s="92" t="n">
         <v>4</v>
@@ -6021,32 +6345,44 @@
         </is>
       </c>
       <c r="F41" s="91" t="n"/>
-      <c r="G41" s="44" t="n">
-        <v>22.130983</v>
-      </c>
-      <c r="H41" s="42" t="n">
-        <v>22.306562</v>
-      </c>
-      <c r="I41" s="45" t="n">
-        <v>22.2187725</v>
-      </c>
-      <c r="J41" s="44" t="n">
-        <v>21.956157</v>
-      </c>
-      <c r="K41" s="42" t="n">
-        <v>22.568768</v>
-      </c>
-      <c r="L41" s="45" t="n">
-        <v>22.28692675789474</v>
+      <c r="G41" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L41" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M41" s="44" t="n">
         <v>21.956157</v>
       </c>
       <c r="N41" s="42" t="n">
-        <v>23.093764</v>
+        <v>22.744233</v>
       </c>
       <c r="O41" s="45" t="n">
-        <v>22.40588420552147</v>
+        <v>22.34435382061069</v>
       </c>
       <c r="P41" s="92" t="n">
         <v>17</v>
@@ -6074,32 +6410,44 @@
         </is>
       </c>
       <c r="F42" s="91" t="n"/>
-      <c r="G42" s="44" t="n">
-        <v>24.679949</v>
-      </c>
-      <c r="H42" s="42" t="n">
-        <v>25.063727</v>
-      </c>
-      <c r="I42" s="45" t="n">
-        <v>24.87143475</v>
-      </c>
-      <c r="J42" s="44" t="n">
-        <v>24.679861</v>
-      </c>
-      <c r="K42" s="42" t="n">
-        <v>25.254859</v>
-      </c>
-      <c r="L42" s="45" t="n">
-        <v>24.9061253373494</v>
+      <c r="G42" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K42" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L42" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M42" s="44" t="n">
         <v>24.679861</v>
       </c>
       <c r="N42" s="42" t="n">
-        <v>26.211857</v>
+        <v>25.637058</v>
       </c>
       <c r="O42" s="45" t="n">
-        <v>25.29114386006826</v>
+        <v>25.11717827753304</v>
       </c>
       <c r="P42" s="92" t="n">
         <v>41</v>
@@ -6127,32 +6475,44 @@
         </is>
       </c>
       <c r="F43" s="91" t="n"/>
-      <c r="G43" s="44" t="n">
-        <v>-9.609557000000001</v>
-      </c>
-      <c r="H43" s="42" t="n">
-        <v>-9.224731</v>
-      </c>
-      <c r="I43" s="45" t="n">
-        <v>-9.417541</v>
-      </c>
-      <c r="J43" s="44" t="n">
-        <v>-9.992034</v>
-      </c>
-      <c r="K43" s="42" t="n">
-        <v>-9.032973999999999</v>
-      </c>
-      <c r="L43" s="45" t="n">
-        <v>-9.439547150537635</v>
+      <c r="G43" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K43" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L43" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M43" s="44" t="n">
         <v>-9.992034</v>
       </c>
       <c r="N43" s="42" t="n">
-        <v>-8.839644</v>
+        <v>-9.031895</v>
       </c>
       <c r="O43" s="45" t="n">
-        <v>-9.429495421686747</v>
+        <v>-9.443328344696969</v>
       </c>
       <c r="P43" s="92" t="n">
         <v>21</v>
@@ -6178,32 +6538,44 @@
         </is>
       </c>
       <c r="F44" s="91" t="n"/>
-      <c r="G44" s="44" t="n">
-        <v>-12.835205</v>
-      </c>
-      <c r="H44" s="42" t="n">
-        <v>-12.638617</v>
-      </c>
-      <c r="I44" s="45" t="n">
-        <v>-12.73695325</v>
-      </c>
-      <c r="J44" s="44" t="n">
-        <v>-13.030537</v>
-      </c>
-      <c r="K44" s="42" t="n">
-        <v>-12.443111</v>
-      </c>
-      <c r="L44" s="45" t="n">
-        <v>-12.69668614772727</v>
+      <c r="G44" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L44" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M44" s="44" t="n">
         <v>-13.030537</v>
       </c>
       <c r="N44" s="42" t="n">
-        <v>-11.857271</v>
+        <v>-12.052837</v>
       </c>
       <c r="O44" s="45" t="n">
-        <v>-12.48453710891089</v>
+        <v>-12.58919227848101</v>
       </c>
       <c r="P44" s="92" t="n">
         <v>35</v>
@@ -6229,32 +6601,44 @@
         </is>
       </c>
       <c r="F45" s="91" t="n"/>
-      <c r="G45" s="44" t="n">
-        <v>43.347712</v>
-      </c>
-      <c r="H45" s="42" t="n">
-        <v>43.529738</v>
-      </c>
-      <c r="I45" s="45" t="n">
-        <v>43.48411175</v>
-      </c>
-      <c r="J45" s="44" t="n">
-        <v>43.16425</v>
-      </c>
-      <c r="K45" s="42" t="n">
-        <v>43.895036</v>
-      </c>
-      <c r="L45" s="45" t="n">
-        <v>43.51310339772727</v>
+      <c r="G45" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K45" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L45" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M45" s="44" t="n">
         <v>43.16425</v>
       </c>
       <c r="N45" s="42" t="n">
-        <v>44.98763</v>
+        <v>44.258717</v>
       </c>
       <c r="O45" s="45" t="n">
-        <v>43.92977204290429</v>
+        <v>43.75221374261604</v>
       </c>
       <c r="P45" s="92" t="n">
         <v>45</v>
@@ -6280,23 +6664,35 @@
         </is>
       </c>
       <c r="F46" s="91" t="n"/>
-      <c r="G46" s="44" t="n">
-        <v>-24.936814</v>
-      </c>
-      <c r="H46" s="42" t="n">
-        <v>-21.31778</v>
-      </c>
-      <c r="I46" s="45" t="n">
-        <v>-23.078208</v>
-      </c>
-      <c r="J46" s="44" t="n">
-        <v>-27.0912</v>
-      </c>
-      <c r="K46" s="42" t="n">
-        <v>615.514628</v>
-      </c>
-      <c r="L46" s="45" t="n">
-        <v>-7.120090493670886</v>
+      <c r="G46" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K46" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L46" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M46" s="44" t="n">
         <v>-27.189834</v>
@@ -6305,7 +6701,7 @@
         <v>615.514628</v>
       </c>
       <c r="O46" s="45" t="n">
-        <v>-14.38238487985866</v>
+        <v>-14.72400429955947</v>
       </c>
       <c r="P46" s="92" t="n">
         <v>22</v>
@@ -6331,23 +6727,35 @@
         </is>
       </c>
       <c r="F47" s="91" t="n"/>
-      <c r="G47" s="44" t="n">
-        <v>-25.545827</v>
-      </c>
-      <c r="H47" s="42" t="n">
-        <v>-22.003252</v>
-      </c>
-      <c r="I47" s="45" t="n">
-        <v>-24.16782866666667</v>
-      </c>
-      <c r="J47" s="44" t="n">
-        <v>-26.529972</v>
-      </c>
-      <c r="K47" s="42" t="n">
-        <v>585.044525</v>
-      </c>
-      <c r="L47" s="45" t="n">
-        <v>43.82682411392405</v>
+      <c r="G47" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K47" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L47" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M47" s="44" t="n">
         <v>-28.995334</v>
@@ -6356,7 +6764,7 @@
         <v>601.551442</v>
       </c>
       <c r="O47" s="45" t="n">
-        <v>22.52723972438163</v>
+        <v>23.33171548017621</v>
       </c>
       <c r="P47" s="92" t="n">
         <v>10</v>
@@ -6382,32 +6790,44 @@
         </is>
       </c>
       <c r="F48" s="91" t="n"/>
-      <c r="G48" s="44" t="n">
-        <v>-21.93529</v>
-      </c>
-      <c r="H48" s="42" t="n">
-        <v>-21.748422</v>
-      </c>
-      <c r="I48" s="45" t="n">
-        <v>-21.81227266666667</v>
-      </c>
-      <c r="J48" s="44" t="n">
-        <v>-22.122958</v>
-      </c>
-      <c r="K48" s="42" t="n">
-        <v>-21.46739</v>
-      </c>
-      <c r="L48" s="45" t="n">
-        <v>-21.80150773125794</v>
+      <c r="G48" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K48" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L48" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M48" s="44" t="n">
         <v>-22.122958</v>
       </c>
       <c r="N48" s="42" t="n">
-        <v>-21.280561</v>
+        <v>-21.373975</v>
       </c>
       <c r="O48" s="45" t="n">
-        <v>-21.73949461745573</v>
+        <v>-21.77002840739051</v>
       </c>
       <c r="P48" s="92" t="n">
         <v>26</v>
@@ -6433,23 +6853,35 @@
         </is>
       </c>
       <c r="F49" s="91" t="n"/>
-      <c r="G49" s="44" t="n">
-        <v>-16.989909</v>
-      </c>
-      <c r="H49" s="42" t="n">
-        <v>-16.71312</v>
-      </c>
-      <c r="I49" s="45" t="n">
-        <v>-16.82818458333333</v>
-      </c>
-      <c r="J49" s="44" t="n">
-        <v>-17.265154</v>
-      </c>
-      <c r="K49" s="42" t="n">
-        <v>-16.71312</v>
-      </c>
-      <c r="L49" s="45" t="n">
-        <v>-17.01889912325286</v>
+      <c r="G49" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K49" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L49" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M49" s="44" t="n">
         <v>-17.677406</v>
@@ -6458,7 +6890,7 @@
         <v>-16.71312</v>
       </c>
       <c r="O49" s="45" t="n">
-        <v>-17.16685602999639</v>
+        <v>-17.17997477554745</v>
       </c>
       <c r="P49" s="92" t="n">
         <v>22</v>
@@ -6484,23 +6916,35 @@
         </is>
       </c>
       <c r="F50" s="91" t="n"/>
-      <c r="G50" s="44" t="n">
-        <v>-7.890414</v>
-      </c>
-      <c r="H50" s="42" t="n">
-        <v>-7.126538</v>
-      </c>
-      <c r="I50" s="45" t="n">
-        <v>-7.508604666666667</v>
-      </c>
-      <c r="J50" s="44" t="n">
-        <v>-9.22963</v>
-      </c>
-      <c r="K50" s="42" t="n">
-        <v>-5.198802</v>
-      </c>
-      <c r="L50" s="45" t="n">
-        <v>-7.480543447058824</v>
+      <c r="G50" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J50" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K50" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L50" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M50" s="44" t="n">
         <v>-9.22963</v>
@@ -6509,7 +6953,7 @@
         <v>-5.198802</v>
       </c>
       <c r="O50" s="45" t="n">
-        <v>-7.367067319587629</v>
+        <v>-7.424401506666666</v>
       </c>
       <c r="P50" s="92" t="n">
         <v>42.3</v>
@@ -6535,32 +6979,44 @@
         </is>
       </c>
       <c r="F51" s="91" t="n"/>
-      <c r="G51" s="44" t="n">
-        <v>5.947684</v>
-      </c>
-      <c r="H51" s="42" t="n">
-        <v>5.95025</v>
-      </c>
-      <c r="I51" s="45" t="n">
-        <v>5.9490035</v>
-      </c>
-      <c r="J51" s="44" t="n">
-        <v>5.80295</v>
-      </c>
-      <c r="K51" s="42" t="n">
-        <v>6.244249</v>
-      </c>
-      <c r="L51" s="45" t="n">
-        <v>5.988675361702128</v>
+      <c r="G51" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J51" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K51" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L51" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M51" s="44" t="n">
         <v>5.80295</v>
       </c>
       <c r="N51" s="42" t="n">
-        <v>6.831754</v>
+        <v>6.684527</v>
       </c>
       <c r="O51" s="45" t="n">
-        <v>6.258005682779456</v>
+        <v>6.175157171755725</v>
       </c>
       <c r="P51" s="92" t="n">
         <v>30</v>
@@ -6586,32 +7042,44 @@
         </is>
       </c>
       <c r="F52" s="91" t="n"/>
-      <c r="G52" s="44" t="n">
-        <v>-6.831769</v>
-      </c>
-      <c r="H52" s="42" t="n">
-        <v>-6.693299</v>
-      </c>
-      <c r="I52" s="45" t="n">
-        <v>-6.72794025</v>
-      </c>
-      <c r="J52" s="44" t="n">
-        <v>-7.106857</v>
-      </c>
-      <c r="K52" s="42" t="n">
-        <v>-6.417687</v>
-      </c>
-      <c r="L52" s="45" t="n">
-        <v>-6.693457427083334</v>
+      <c r="G52" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K52" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L52" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M52" s="44" t="n">
         <v>-7.106857</v>
       </c>
       <c r="N52" s="42" t="n">
-        <v>-6.280602</v>
+        <v>-6.281162</v>
       </c>
       <c r="O52" s="45" t="n">
-        <v>-6.678144114457831</v>
+        <v>-6.689309939393939</v>
       </c>
       <c r="P52" s="92" t="n">
         <v>16</v>
@@ -6636,32 +7104,44 @@
         </is>
       </c>
       <c r="F53" s="91" t="n"/>
-      <c r="G53" s="44" t="n">
-        <v>-6.983004</v>
-      </c>
-      <c r="H53" s="42" t="n">
-        <v>-6.791713</v>
-      </c>
-      <c r="I53" s="45" t="n">
-        <v>-6.83953925</v>
-      </c>
-      <c r="J53" s="44" t="n">
-        <v>-7.174291</v>
-      </c>
-      <c r="K53" s="42" t="n">
-        <v>-6.409177</v>
-      </c>
-      <c r="L53" s="45" t="n">
-        <v>-6.775086847826087</v>
+      <c r="G53" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K53" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L53" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M53" s="44" t="n">
         <v>-7.174294</v>
       </c>
       <c r="N53" s="42" t="n">
-        <v>-6.216308</v>
+        <v>-6.409162</v>
       </c>
       <c r="O53" s="45" t="n">
-        <v>-6.722254606153847</v>
+        <v>-6.749459213178294</v>
       </c>
       <c r="P53" s="92" t="n">
         <v>14.3</v>
@@ -6686,23 +7166,35 @@
         </is>
       </c>
       <c r="F54" s="91" t="n"/>
-      <c r="G54" s="44" t="n">
-        <v>-19.378739</v>
-      </c>
-      <c r="H54" s="42" t="n">
-        <v>-16.59368</v>
-      </c>
-      <c r="I54" s="45" t="n">
-        <v>-17.53828225</v>
-      </c>
-      <c r="J54" s="44" t="n">
-        <v>-22.563305</v>
-      </c>
-      <c r="K54" s="42" t="n">
-        <v>-15.201338</v>
-      </c>
-      <c r="L54" s="45" t="n">
-        <v>-17.59224298947369</v>
+      <c r="G54" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K54" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L54" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M54" s="44" t="n">
         <v>-34.328753</v>
@@ -6711,7 +7203,7 @@
         <v>-13.612698</v>
       </c>
       <c r="O54" s="45" t="n">
-        <v>-16.86205387009063</v>
+        <v>-17.04286368965517</v>
       </c>
       <c r="P54" s="92" t="n">
         <v>14</v>
@@ -6736,32 +7228,44 @@
         </is>
       </c>
       <c r="F55" s="91" t="n"/>
-      <c r="G55" s="44" t="n">
-        <v>34.885304</v>
-      </c>
-      <c r="H55" s="42" t="n">
-        <v>35.016722</v>
-      </c>
-      <c r="I55" s="45" t="n">
-        <v>34.983228</v>
-      </c>
-      <c r="J55" s="44" t="n">
-        <v>34.496013</v>
-      </c>
-      <c r="K55" s="42" t="n">
-        <v>35.142637</v>
-      </c>
-      <c r="L55" s="45" t="n">
-        <v>34.92773860204082</v>
+      <c r="G55" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J55" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K55" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L55" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M55" s="44" t="n">
-        <v>33.835176</v>
+        <v>34.484661</v>
       </c>
       <c r="N55" s="42" t="n">
         <v>35.142637</v>
       </c>
       <c r="O55" s="45" t="n">
-        <v>34.69282621791045</v>
+        <v>34.82630508679245</v>
       </c>
       <c r="P55" s="92" t="n">
         <v>8</v>
@@ -6786,32 +7290,44 @@
         </is>
       </c>
       <c r="F56" s="91" t="n"/>
-      <c r="G56" s="44" t="n">
-        <v>84.079024</v>
-      </c>
-      <c r="H56" s="42" t="n">
-        <v>84.080629</v>
-      </c>
-      <c r="I56" s="45" t="n">
-        <v>84.07986975</v>
-      </c>
-      <c r="J56" s="44" t="n">
-        <v>83.399811</v>
-      </c>
-      <c r="K56" s="42" t="n">
-        <v>84.481943</v>
-      </c>
-      <c r="L56" s="45" t="n">
-        <v>83.95510612244898</v>
+      <c r="G56" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J56" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K56" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L56" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M56" s="44" t="n">
         <v>83.399811</v>
       </c>
       <c r="N56" s="42" t="n">
-        <v>84.73123099999999</v>
+        <v>84.481943</v>
       </c>
       <c r="O56" s="45" t="n">
-        <v>84.17601811044776</v>
+        <v>84.14031726792453</v>
       </c>
       <c r="P56" s="92" t="n">
         <v>16</v>
@@ -6836,32 +7352,44 @@
         </is>
       </c>
       <c r="F57" s="91" t="n"/>
-      <c r="G57" s="44" t="n">
-        <v>-19.567459</v>
-      </c>
-      <c r="H57" s="42" t="n">
-        <v>-19.293875</v>
-      </c>
-      <c r="I57" s="45" t="n">
-        <v>-19.43119375</v>
-      </c>
-      <c r="J57" s="44" t="n">
-        <v>-19.694526</v>
-      </c>
-      <c r="K57" s="42" t="n">
-        <v>-18.365861</v>
-      </c>
-      <c r="L57" s="45" t="n">
-        <v>-19.29489339795918</v>
+      <c r="G57" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K57" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L57" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M57" s="44" t="n">
         <v>-19.694526</v>
       </c>
       <c r="N57" s="42" t="n">
-        <v>-17.685439</v>
+        <v>-18.365861</v>
       </c>
       <c r="O57" s="45" t="n">
-        <v>-18.88487208656716</v>
+        <v>-19.07774906792453</v>
       </c>
       <c r="P57" s="92" t="n">
         <v>1.4</v>
@@ -6886,32 +7414,44 @@
         </is>
       </c>
       <c r="F58" s="91" t="n"/>
-      <c r="G58" s="44" t="n">
-        <v>-99.133426</v>
-      </c>
-      <c r="H58" s="42" t="n">
-        <v>-98.996635</v>
-      </c>
-      <c r="I58" s="45" t="n">
-        <v>-99.03310825</v>
-      </c>
-      <c r="J58" s="44" t="n">
-        <v>-100.381843</v>
-      </c>
-      <c r="K58" s="42" t="n">
-        <v>-97.631783</v>
-      </c>
-      <c r="L58" s="45" t="n">
-        <v>-99.08009911224489</v>
+      <c r="G58" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L58" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M58" s="44" t="n">
-        <v>-101.229899</v>
+        <v>-101.072261</v>
       </c>
       <c r="N58" s="42" t="n">
         <v>-97.631783</v>
       </c>
       <c r="O58" s="45" t="n">
-        <v>-99.75172479104478</v>
+        <v>-99.58427650943396</v>
       </c>
       <c r="P58" s="92" t="n">
         <v>2</v>
@@ -6936,32 +7476,44 @@
         </is>
       </c>
       <c r="F59" s="91" t="n"/>
-      <c r="G59" s="44" t="n">
-        <v>25.586364</v>
-      </c>
-      <c r="H59" s="42" t="n">
-        <v>26.152976</v>
-      </c>
-      <c r="I59" s="45" t="n">
-        <v>25.87022225</v>
-      </c>
-      <c r="J59" s="44" t="n">
-        <v>25.586364</v>
-      </c>
-      <c r="K59" s="42" t="n">
-        <v>29.550881</v>
-      </c>
-      <c r="L59" s="45" t="n">
-        <v>27.57309315909091</v>
+      <c r="G59" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L59" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M59" s="44" t="n">
         <v>25.586364</v>
       </c>
       <c r="N59" s="42" t="n">
-        <v>37.465562</v>
+        <v>30.87058</v>
       </c>
       <c r="O59" s="45" t="n">
-        <v>30.12293462237762</v>
+        <v>28.56749884347826</v>
       </c>
       <c r="P59" s="92" t="n">
         <v>15</v>
@@ -6986,32 +7538,44 @@
         </is>
       </c>
       <c r="F60" s="91" t="n"/>
-      <c r="G60" s="44" t="n">
-        <v>-1.916137</v>
-      </c>
-      <c r="H60" s="42" t="n">
-        <v>-1.730905</v>
-      </c>
-      <c r="I60" s="45" t="n">
-        <v>-1.82351775</v>
-      </c>
-      <c r="J60" s="44" t="n">
-        <v>-1.916344</v>
-      </c>
-      <c r="K60" s="42" t="n">
-        <v>-1.17858</v>
-      </c>
-      <c r="L60" s="45" t="n">
-        <v>-1.542891936170213</v>
+      <c r="G60" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L60" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M60" s="44" t="n">
         <v>-1.916344</v>
       </c>
       <c r="N60" s="42" t="n">
-        <v>1.216445</v>
+        <v>0.112008</v>
       </c>
       <c r="O60" s="45" t="n">
-        <v>-0.5552968705882353</v>
+        <v>-0.9181024758364312</v>
       </c>
       <c r="P60" s="92" t="n">
         <v>8</v>
@@ -7036,32 +7600,44 @@
         </is>
       </c>
       <c r="F61" s="91" t="n"/>
-      <c r="G61" s="44" t="n">
-        <v>-7.330549</v>
-      </c>
-      <c r="H61" s="42" t="n">
-        <v>-7.054122</v>
-      </c>
-      <c r="I61" s="45" t="n">
-        <v>-7.231798870967742</v>
-      </c>
-      <c r="J61" s="44" t="n">
-        <v>-7.479489</v>
-      </c>
-      <c r="K61" s="42" t="n">
-        <v>-7.054122</v>
-      </c>
-      <c r="L61" s="45" t="n">
-        <v>-7.256451875949367</v>
+      <c r="G61" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L61" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M61" s="44" t="n">
         <v>-7.63035</v>
       </c>
       <c r="N61" s="42" t="n">
-        <v>-6.959274</v>
+        <v>-7.054122</v>
       </c>
       <c r="O61" s="45" t="n">
-        <v>-7.252601561712846</v>
+        <v>-7.272926819419237</v>
       </c>
       <c r="P61" s="92" t="n">
         <v>2</v>
@@ -7086,23 +7662,35 @@
         </is>
       </c>
       <c r="F62" s="91" t="n"/>
-      <c r="G62" s="44" t="n">
-        <v>-4.718354</v>
-      </c>
-      <c r="H62" s="42" t="n">
-        <v>-4.584543</v>
-      </c>
-      <c r="I62" s="45" t="n">
-        <v>-4.629788666666666</v>
-      </c>
-      <c r="J62" s="44" t="n">
-        <v>-5.004483</v>
-      </c>
-      <c r="K62" s="42" t="n">
-        <v>-4.18179</v>
-      </c>
-      <c r="L62" s="45" t="n">
-        <v>-4.550330274725274</v>
+      <c r="G62" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L62" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M62" s="44" t="n">
         <v>-5.173235</v>
@@ -7111,7 +7699,7 @@
         <v>-4.18179</v>
       </c>
       <c r="O62" s="45" t="n">
-        <v>-4.608935638297872</v>
+        <v>-4.593298399224806</v>
       </c>
       <c r="P62" s="92" t="n">
         <v>2</v>
